--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>242.893198350688</v>
+        <v>2.452389333333333</v>
       </c>
       <c r="H2">
-        <v>242.893198350688</v>
+        <v>7.357168</v>
       </c>
       <c r="I2">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="J2">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>25629.29153290021</v>
+        <v>275.926642397952</v>
       </c>
       <c r="R2">
-        <v>25629.29153290021</v>
+        <v>2483.339781581568</v>
       </c>
       <c r="S2">
-        <v>0.2630822520239167</v>
+        <v>0.002618208978549861</v>
       </c>
       <c r="T2">
-        <v>0.2630822520239167</v>
+        <v>0.002618208978549861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>242.893198350688</v>
+        <v>2.452389333333333</v>
       </c>
       <c r="H3">
-        <v>242.893198350688</v>
+        <v>7.357168</v>
       </c>
       <c r="I3">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="J3">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>25789.30556038577</v>
+        <v>260.7244623974293</v>
       </c>
       <c r="R3">
-        <v>25789.30556038577</v>
+        <v>2346.520161576864</v>
       </c>
       <c r="S3">
-        <v>0.2647247808722962</v>
+        <v>0.002473958739337748</v>
       </c>
       <c r="T3">
-        <v>0.2647247808722962</v>
+        <v>0.002473958739337749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>242.893198350688</v>
+        <v>2.452389333333333</v>
       </c>
       <c r="H4">
-        <v>242.893198350688</v>
+        <v>7.357168</v>
       </c>
       <c r="I4">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="J4">
-        <v>0.8366352238919974</v>
+        <v>0.007993767302975028</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>30085.82935457613</v>
+        <v>305.7924854951431</v>
       </c>
       <c r="R4">
-        <v>30085.82935457613</v>
+        <v>2752.132369456288</v>
       </c>
       <c r="S4">
-        <v>0.3088281909957845</v>
+        <v>0.002901599585087418</v>
       </c>
       <c r="T4">
-        <v>0.3088281909957845</v>
+        <v>0.002901599585087418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.4283078617297</v>
+        <v>243.5672963333334</v>
       </c>
       <c r="H5">
-        <v>47.4283078617297</v>
+        <v>730.7018890000001</v>
       </c>
       <c r="I5">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="J5">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>5004.479077036165</v>
+        <v>27404.5826907325</v>
       </c>
       <c r="R5">
-        <v>5004.479077036165</v>
+        <v>246641.2442165925</v>
       </c>
       <c r="S5">
-        <v>0.05137050410087013</v>
+        <v>0.2600362322055367</v>
       </c>
       <c r="T5">
-        <v>0.05137050410087013</v>
+        <v>0.2600362322055367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.4283078617297</v>
+        <v>243.5672963333334</v>
       </c>
       <c r="H6">
-        <v>47.4283078617297</v>
+        <v>730.7018890000001</v>
       </c>
       <c r="I6">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="J6">
-        <v>0.1633647761080026</v>
+        <v>0.7939278902575405</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>5035.724062936607</v>
+        <v>25894.72704474209</v>
       </c>
       <c r="R6">
-        <v>5035.724062936607</v>
+        <v>233052.5434026788</v>
       </c>
       <c r="S6">
-        <v>0.05169123092410641</v>
+        <v>0.2457095344488738</v>
       </c>
       <c r="T6">
-        <v>0.05169123092410641</v>
+        <v>0.2457095344488738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>243.5672963333334</v>
+      </c>
+      <c r="H7">
+        <v>730.7018890000001</v>
+      </c>
+      <c r="I7">
+        <v>0.7939278902575405</v>
+      </c>
+      <c r="J7">
+        <v>0.7939278902575405</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>124.6916553333333</v>
+      </c>
+      <c r="N7">
+        <v>374.074966</v>
+      </c>
+      <c r="O7">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="P7">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="Q7">
+        <v>30370.80936486787</v>
+      </c>
+      <c r="R7">
+        <v>273337.2842838108</v>
+      </c>
+      <c r="S7">
+        <v>0.28818212360313</v>
+      </c>
+      <c r="T7">
+        <v>0.2881821236031301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>60.76799533333334</v>
+      </c>
+      <c r="H8">
+        <v>182.303986</v>
+      </c>
+      <c r="I8">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="J8">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>112.513392</v>
+      </c>
+      <c r="N8">
+        <v>337.540176</v>
+      </c>
+      <c r="O8">
+        <v>0.3275312977368564</v>
+      </c>
+      <c r="P8">
+        <v>0.3275312977368564</v>
+      </c>
+      <c r="Q8">
+        <v>6837.213279993504</v>
+      </c>
+      <c r="R8">
+        <v>61534.91951994153</v>
+      </c>
+      <c r="S8">
+        <v>0.06487685655276978</v>
+      </c>
+      <c r="T8">
+        <v>0.06487685655276978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>47.4283078617297</v>
-      </c>
-      <c r="H7">
-        <v>47.4283078617297</v>
-      </c>
-      <c r="I7">
-        <v>0.1633647761080026</v>
-      </c>
-      <c r="J7">
-        <v>0.1633647761080026</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>123.864437369458</v>
-      </c>
-      <c r="N7">
-        <v>123.864437369458</v>
-      </c>
-      <c r="O7">
-        <v>0.3691312320788105</v>
-      </c>
-      <c r="P7">
-        <v>0.3691312320788105</v>
-      </c>
-      <c r="Q7">
-        <v>5874.680668678591</v>
-      </c>
-      <c r="R7">
-        <v>5874.680668678591</v>
-      </c>
-      <c r="S7">
-        <v>0.06030304108302602</v>
-      </c>
-      <c r="T7">
-        <v>0.06030304108302602</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>60.76799533333334</v>
+      </c>
+      <c r="H9">
+        <v>182.303986</v>
+      </c>
+      <c r="I9">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="J9">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>106.314466</v>
+      </c>
+      <c r="N9">
+        <v>318.943398</v>
+      </c>
+      <c r="O9">
+        <v>0.3094859589441663</v>
+      </c>
+      <c r="P9">
+        <v>0.3094859589441664</v>
+      </c>
+      <c r="Q9">
+        <v>6460.516973753825</v>
+      </c>
+      <c r="R9">
+        <v>58144.65276378443</v>
+      </c>
+      <c r="S9">
+        <v>0.06130246575595481</v>
+      </c>
+      <c r="T9">
+        <v>0.06130246575595483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60.76799533333334</v>
+      </c>
+      <c r="H10">
+        <v>182.303986</v>
+      </c>
+      <c r="I10">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="J10">
+        <v>0.1980783424394845</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>124.6916553333333</v>
+      </c>
+      <c r="N10">
+        <v>374.074966</v>
+      </c>
+      <c r="O10">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="P10">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="Q10">
+        <v>7577.261929401609</v>
+      </c>
+      <c r="R10">
+        <v>68195.35736461448</v>
+      </c>
+      <c r="S10">
+        <v>0.07189902013075988</v>
+      </c>
+      <c r="T10">
+        <v>0.0718990201307599</v>
       </c>
     </row>
   </sheetData>
